--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_18-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_18-55.xlsx
@@ -98,6 +98,12 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>CHOLEROSE PLUS 10/10 MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -342,9 +348,6 @@
   </si>
   <si>
     <t>حلق</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1308,17 +1311,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1326,7 +1329,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1334,17 +1337,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1352,7 +1355,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1360,17 +1363,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1378,7 +1381,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1386,17 +1389,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1418,11 +1421,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>27.5</v>
+        <v>66</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1438,13 +1441,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1456,7 +1459,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1464,13 +1467,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1482,7 +1485,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1490,13 +1493,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1516,17 +1519,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1542,17 +1545,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1560,7 +1563,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1568,17 +1571,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1586,7 +1589,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1594,17 +1597,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>35</v>
+        <v>122.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1612,7 +1615,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1620,17 +1623,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1652,11 +1655,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1672,17 +1675,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1690,7 +1693,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1698,13 +1701,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1716,7 +1719,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1724,17 +1727,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1742,7 +1745,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1750,17 +1753,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1768,7 +1771,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1776,17 +1779,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1802,17 +1805,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1820,7 +1823,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1828,17 +1831,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>30.670000000000002</v>
+        <v>30</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1846,7 +1849,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1854,17 +1857,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1872,7 +1875,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1880,17 +1883,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1898,7 +1901,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1906,17 +1909,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1924,7 +1927,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1932,17 +1935,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1950,7 +1953,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1958,13 +1961,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1976,7 +1979,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1984,13 +1987,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2002,7 +2005,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2010,13 +2013,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2028,7 +2031,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2036,13 +2039,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2054,7 +2057,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2062,13 +2065,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2080,7 +2083,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2088,13 +2091,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2106,7 +2109,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2114,17 +2117,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>27.329999999999998</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2140,17 +2143,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2158,7 +2161,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2166,13 +2169,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2184,7 +2187,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2198,7 +2201,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2210,7 +2213,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2218,17 +2221,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2236,7 +2239,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2244,17 +2247,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2262,7 +2265,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2270,17 +2273,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2288,7 +2291,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2302,11 +2305,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2314,7 +2317,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2322,17 +2325,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>76.439999999999998</v>
+        <v>43</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2340,7 +2343,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2348,17 +2351,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>16</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2366,7 +2369,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2374,17 +2377,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2392,7 +2395,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2400,17 +2403,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2418,7 +2421,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2426,17 +2429,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2444,7 +2447,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2452,13 +2455,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2470,7 +2473,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2484,11 +2487,11 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2496,7 +2499,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2504,17 +2507,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2522,7 +2525,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2530,13 +2533,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2548,7 +2551,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2556,13 +2559,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2574,7 +2577,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2582,17 +2585,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2600,7 +2603,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2608,17 +2611,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2626,7 +2629,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2634,17 +2637,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2652,7 +2655,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2660,17 +2663,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2686,17 +2689,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2704,7 +2707,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2718,7 +2721,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2730,7 +2733,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2738,13 +2741,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2756,7 +2759,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2764,17 +2767,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2782,7 +2785,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2790,13 +2793,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2808,7 +2811,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2816,17 +2819,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2834,7 +2837,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2842,13 +2845,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2874,11 +2877,11 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2900,11 +2903,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2912,7 +2915,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2920,17 +2923,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2938,7 +2941,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2946,17 +2949,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2964,7 +2967,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2972,13 +2975,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2990,7 +2993,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2998,7 +3001,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
@@ -3016,7 +3019,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3024,13 +3027,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3050,17 +3053,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3068,7 +3071,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3076,17 +3079,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3102,17 +3105,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3128,13 +3131,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3154,13 +3157,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3180,13 +3183,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3206,13 +3209,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>30</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3224,7 +3227,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3232,51 +3235,77 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>89</v>
+      </c>
+      <c t="s" r="B92" s="7">
+        <v>123</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c t="s" r="H92" s="8">
+        <v>122</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9">
+        <v>70</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c t="s" r="N92" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="92" ht="26.25" customHeight="1">
-      <c r="K92" s="10">
-        <v>3946.8600000000001</v>
-      </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="11">
-        <v>123</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c t="s" r="F93" s="12">
+    <row r="93" ht="25.5" customHeight="1">
+      <c r="K93" s="10">
+        <v>3958.8600000000001</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+    </row>
+    <row r="94" ht="17.25" customHeight="1">
+      <c t="s" r="A94" s="11">
         <v>124</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c t="s" r="I93" s="14">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c t="s" r="F94" s="12">
         <v>125</v>
       </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+      <c t="s" r="I94" s="14">
+        <v>126</v>
+      </c>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="275">
+  <mergeCells count="278">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3548,10 +3577,13 @@
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="I93:N93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="I94:N94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
